--- a/timing&planning.xlsx
+++ b/timing&planning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="904"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="904" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="me 1404" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
   <si>
     <t>1403-12-27</t>
   </si>
@@ -270,13 +270,31 @@
   </si>
   <si>
     <t>راز استمرار در ترید در اینه که بجای اینکه به این فکر کنی که چقدر قراره سود کنی اول به این فکر کنی که چقدر قراره از دست بدی و آن را تا جای ممکن کوچک نگه داری. با کم کردن این ریسک استمرار ممکنه. ذهنیت شیر سلطان جنگل</t>
+  </si>
+  <si>
+    <t>در ترید حالت خلسه بهت دست میده. مثل عبادت کردن. آماده از دست دادن هستی.</t>
+  </si>
+  <si>
+    <t>مارکت مثل خدا میمونه خیلی عادله. اگه اشتباه کنی سریع جواب کارهات رو میده.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پس مثل خدا فکر کن. خدا به پروسس و پردازش و زحمتی که کشیدی جایزه میده. </t>
+  </si>
+  <si>
+    <t>مارکت مثل یک موجود هوشمند میمونه و خیلی سریع متوجه تغییر لایف استایل تو میشه و بر همون اساس به تو ریوارد میده.</t>
+  </si>
+  <si>
+    <t>Yesterday is a memory. Tomorrow is a dream.  Today is the Present... don't waste it.</t>
+  </si>
+  <si>
+    <t>https://x.com/I_Am_The_ICT/status/1906296204981370894</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +349,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -355,10 +381,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -369,8 +396,10 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -651,7 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:D15"/>
     </sheetView>
   </sheetViews>
@@ -922,55 +951,87 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="166.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>81</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/timing&planning.xlsx
+++ b/timing&planning.xlsx
@@ -4,15 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="904" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="904" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="me 1404" sheetId="1" r:id="rId1"/>
-    <sheet name="market 2025" sheetId="2" r:id="rId2"/>
-    <sheet name="Trading Plan (Mindset)" sheetId="3" r:id="rId3"/>
-    <sheet name="Trading Plan (Method)" sheetId="4" r:id="rId4"/>
-    <sheet name="Trading Plan (Money Management)" sheetId="5" r:id="rId5"/>
-    <sheet name="Temp" sheetId="6" r:id="rId6"/>
+    <sheet name="Trading Plan (Mindset)" sheetId="3" r:id="rId2"/>
+    <sheet name="Trading Plan (Method)" sheetId="4" r:id="rId3"/>
+    <sheet name="Trading Plan (Money Management)" sheetId="5" r:id="rId4"/>
+    <sheet name="Temp" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="118">
   <si>
     <t>1403-12-27</t>
   </si>
@@ -203,12 +202,6 @@
     <t xml:space="preserve">تعطیلات نوروزی </t>
   </si>
   <si>
-    <t>تعطیلات نوروزی  - رفت</t>
-  </si>
-  <si>
-    <t>تعطیلات نوروزی - برگشت</t>
-  </si>
-  <si>
     <t>ماه رمضان 1</t>
   </si>
   <si>
@@ -242,9 +235,6 @@
     <t>همه چیز حالت شصت به چهل داره. پس در هنگام سودکردن خدا داره کمکت میکنه.</t>
   </si>
   <si>
-    <t>باید بتوانی در شرایط سخت و پر استرس تصمیمات سخت و صحیح بگیری</t>
-  </si>
-  <si>
     <t>ذهن حالت خزنده داره پس همانند سیستم های هوایی باید همه چیز را مستند کنی تا بر اساس پلن حرکت کنی و ریسک را کاهش دهی.</t>
   </si>
   <si>
@@ -288,6 +278,105 @@
   </si>
   <si>
     <t>https://x.com/I_Am_The_ICT/status/1906296204981370894</t>
+  </si>
+  <si>
+    <t>عید فطر</t>
+  </si>
+  <si>
+    <t>تعطیلات نوروزی - برگشت 9 صبح</t>
+  </si>
+  <si>
+    <t>1404-01-16</t>
+  </si>
+  <si>
+    <t>1404-01-17</t>
+  </si>
+  <si>
+    <t>1404-01-18</t>
+  </si>
+  <si>
+    <t>1404-01-19</t>
+  </si>
+  <si>
+    <t>1404-01-20</t>
+  </si>
+  <si>
+    <t>1404-01-21</t>
+  </si>
+  <si>
+    <t>1404-01-22</t>
+  </si>
+  <si>
+    <t>1404-01-23</t>
+  </si>
+  <si>
+    <t>1404-01-24</t>
+  </si>
+  <si>
+    <t>1404-01-25</t>
+  </si>
+  <si>
+    <t>1404-01-26</t>
+  </si>
+  <si>
+    <t>1404-01-27</t>
+  </si>
+  <si>
+    <t>1404-01-28</t>
+  </si>
+  <si>
+    <t>1404-01-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">من در direction طلا نیم درصد ریسک میکنم و در pullback طلا بیست و پنج صدم </t>
+  </si>
+  <si>
+    <t>1404-01-30</t>
+  </si>
+  <si>
+    <t>1404-01-31</t>
+  </si>
+  <si>
+    <t>1404-02-01</t>
+  </si>
+  <si>
+    <t>1404-02-02</t>
+  </si>
+  <si>
+    <t>1404-02-03</t>
+  </si>
+  <si>
+    <t>1404-02-04</t>
+  </si>
+  <si>
+    <t>1404-02-05</t>
+  </si>
+  <si>
+    <t>تعطیلات نوروزی  - رفت 12 ظهر</t>
+  </si>
+  <si>
+    <t>2025 Lecture Series - Algorithmic Timing &amp; Journaling \ 03/22/2025</t>
+  </si>
+  <si>
+    <t>همه چیز حالت نسبی داره. حتی اون چیزی که فکر میکنی باخت محسوب میشه. اگه نبازی انرژی احساسی لازم را جهت ادامه حرکت نداری.</t>
+  </si>
+  <si>
+    <t>2025 Lecture Series - Weekly Option Strategy Intro \ 03/28/2025</t>
+  </si>
+  <si>
+    <t>وقتی بیکاری و پشت چارت نشستی دلیل نمیشه که ترید کنی و وارد هر تریدی بشی</t>
+  </si>
+  <si>
+    <t>مارکت اصلا اوردر تو رو نمیبینه. داره مسیر خودش رو میره. تو فقط کافیه در اون تایم بخصوص پای چارت باشی. پس باید یاد بگیری زمان زیادی که حوصله بر هم هست هیچ کاری نکنی.</t>
+  </si>
+  <si>
+    <t>بعضی وقتا مفروضات ذهنی خودت کاملا اشتباه هستن. تو اصلا تریدرهای ایرانی رو قبول نداشتی. برگشتی عقب، دیدی چه آدمای خفنی هستن. آدما عوض میشن. خودت عوض میشی.</t>
+  </si>
+  <si>
+    <t>به همین نسبت لازم نیست چیزی به کسی بگی. تو عوض شدی، آدما ممکنه هنوز عوض نشده باشن.</t>
+  </si>
+  <si>
+    <t>باید بتوانی در شرایط سخت و پر استرس تصمیمات سریع، سخت و صحیح بگیری</t>
   </si>
 </sst>
 </file>
@@ -394,9 +483,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -678,10 +767,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:D15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -690,14 +782,15 @@
     <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="45.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="60.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -707,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -724,7 +817,7 @@
         <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -738,7 +831,7 @@
         <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -752,7 +845,7 @@
         <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -766,14 +859,14 @@
         <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
@@ -783,10 +876,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -797,10 +890,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -811,10 +904,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -825,10 +918,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -856,10 +949,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -869,26 +962,35 @@
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E17" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -896,7 +998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -904,7 +1006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -912,7 +1014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
@@ -920,41 +1022,226 @@
         <v>25</v>
       </c>
     </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A47:D47"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A31:D31"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E17" r:id="rId1"/>
+    <hyperlink ref="E18" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,65 +1252,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1035,7 +1347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -1051,7 +1363,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1119,12 +1431,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -1137,12 +1449,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1150,7 +1467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D19"/>
   <sheetViews>

--- a/timing&planning.xlsx
+++ b/timing&planning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="904" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="653"/>
   </bookViews>
   <sheets>
     <sheet name="me 1404" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="138">
   <si>
     <t>1403-12-27</t>
   </si>
@@ -283,9 +283,6 @@
     <t>عید فطر</t>
   </si>
   <si>
-    <t>تعطیلات نوروزی - برگشت 9 صبح</t>
-  </si>
-  <si>
     <t>1404-01-16</t>
   </si>
   <si>
@@ -352,9 +349,6 @@
     <t>1404-02-05</t>
   </si>
   <si>
-    <t>تعطیلات نوروزی  - رفت 12 ظهر</t>
-  </si>
-  <si>
     <t>2025 Lecture Series - Algorithmic Timing &amp; Journaling \ 03/22/2025</t>
   </si>
   <si>
@@ -377,13 +371,109 @@
   </si>
   <si>
     <t>باید بتوانی در شرایط سخت و پر استرس تصمیمات سریع، سخت و صحیح بگیری</t>
+  </si>
+  <si>
+    <t>تعطیلات نوروزی - برگشت 6 صبح</t>
+  </si>
+  <si>
+    <t>این ویدئو آی سی تی ارزش چند بار دیدن را دارد</t>
+  </si>
+  <si>
+    <t>NFP Demo Trade XU</t>
+  </si>
+  <si>
+    <t>دیگه تکنیکال کافیه. از حالا باید تکنیک های روانشناسی و مدیریت سرمایه رو یاد بگیری</t>
+  </si>
+  <si>
+    <t>شرکت 12</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تعطیلات نوروزی  - رفت 22 </t>
+  </si>
+  <si>
+    <t>تعطیلات نوروزی  - رفت 12</t>
+  </si>
+  <si>
+    <t>تعطیلات نوروزی - برگشت 9</t>
+  </si>
+  <si>
+    <t>MARKET</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Ticket</t>
+  </si>
+  <si>
+    <t>NQM2025</t>
+  </si>
+  <si>
+    <t>مارکت داشت میریخت
+من دیمند تایم فریم بالا را دیدم
+من اردرهای فروشی را دیدم که به سختی در حال نزدیک شدن به دیمند تایم فریم بالا بودند
+این اردرهای فروشی باید پاکسازی میشدن
+یک سفارش بای لیمیت در ابتدای دیمند تایم فریم بالا گذاشتم
+استاپ لاس بزرگ هشت دلاری با کمتری حجم ممکن داشتم
+نمیتونستم مارکت رو ببینم چون هدف اصلیم تست لایو ترید در منطقه دور از شهر بود
+بعد از بیست دقیقه تارگت پر شد
+همزمان در تلگرام مایکل روی همین ترید و با استاپ خیلی کوچکتر ترید از نوع فروش گرفت
+چرا چون استراکچر تشکیل شده بود
+یادت نره تو باید صبر کنی تا استراکچر تشکیل بشه و داخل استراکچر ترید کنی
+سیستم پرایس اکشن الگو تریدینگ دکتر اناری سعی میکنه ساده سازی شده آی سی تی را اجرا کنه
+شانس آوردی که تارگت پر شد.</t>
+  </si>
+  <si>
+    <t>تو مومنتوم تریدر نیستی. تو باید داخل استراکچر ترید کنی.
+اگه حرکت بدون استراکچر اتفاق افتاد یعنی مارکت دلش نمیخواد با اسمارت مانی حرکت کنه
+تو اسمارت مانی تریدر هستی پس باید آخر از همه وارد بشی
+تو باید مطیع مارکت باشی نه مارکت مطیع تو. وقتی تارگت عددی فیکس میزاری گول میخوری
+یک ترید آیدیا داشتی که خیلی هم درست بود. بحث اینه که قراراه چه جوری اتفاق بیفته و نقش تو اونجا چیه 
+برنامه کودک نیست که یکدفعه بره و ترید آیدیا شما اتفاق بیفته
+مارکت تمام تلاشش رو میکنه تا اعتماد بنفس تو رو تخریب کنه
+تو بغیر از اعتماد بنفست چیزی نداری
+سود دلاری با سود ریالی خیلی فرق داره
+در انتخاب ستاپ وسواس بیشتری داشته باش
+سفارشات لیمیت هم خوبن هم بد
+استفاده اشتباه باعث ایجاد اعتماد بنفس کاذب میشه"
+فکر کردن به ضرر خوبه یا بده؟
+هم خوبه چون باعث حرکت میشه هم بد چون باعث زیاد حرکت نکردن میشه</t>
+  </si>
+  <si>
+    <t>XAUUSD</t>
+  </si>
+  <si>
+    <t>11871827 11874906 11879831</t>
+  </si>
+  <si>
+    <t>صف معاینه فنی - مصاحبه 43 فنفیکس - استمرار مهم تر از هیجان
+رفتار اردربلاک تایم فریم پایین داخل اردربلاک تایم فریم بالا برام مهمه</t>
+  </si>
+  <si>
+    <t>فعالسازی چالش دو مرحله ایی فنفیکس</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,8 +536,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,8 +571,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -469,12 +590,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -484,11 +616,58 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -770,29 +949,45 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="60.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="49.7109375" style="1" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.85546875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="67.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -800,13 +995,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2" s="16">
+        <v>45733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -816,11 +1014,14 @@
       <c r="C3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" s="16">
+        <v>45734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -830,11 +1031,14 @@
       <c r="C4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" s="16">
+        <v>45735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -844,11 +1048,26 @@
       <c r="C5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5" s="16">
+        <v>45736</v>
+      </c>
+      <c r="F5" s="13">
+        <v>11604303</v>
+      </c>
+      <c r="G5" s="18">
+        <v>5</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -858,17 +1077,30 @@
       <c r="C6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6" s="16">
+        <v>45737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -878,11 +1110,14 @@
       <c r="C8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8" s="16">
+        <v>45738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -892,11 +1127,14 @@
       <c r="C9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E9" s="16">
+        <v>45739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -906,11 +1144,14 @@
       <c r="C10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E10" s="16">
+        <v>45740</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -918,43 +1159,76 @@
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E11" s="16">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D12" s="11"/>
+      <c r="E12" s="16">
+        <v>45742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D13" s="11"/>
+      <c r="E13" s="16">
+        <v>45743</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D14" s="11"/>
+      <c r="E14" s="16">
+        <v>45744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -964,258 +1238,452 @@
       <c r="C16" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D16" s="11"/>
+      <c r="E16" s="16">
+        <v>45745</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="16">
+        <v>45746</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="14"/>
+      <c r="K17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E18" s="10">
+        <v>45747</v>
+      </c>
+      <c r="F18" s="17">
+        <v>11823802</v>
+      </c>
+      <c r="G18" s="20">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10">
+        <v>45748</v>
+      </c>
+      <c r="F19" s="17">
+        <v>11846080</v>
+      </c>
+      <c r="G19" s="20">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="10">
+        <v>45749</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="20">
+        <v>-10</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="10">
+        <v>45750</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="10">
+        <v>45751</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="16">
+        <v>45752</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="16">
+        <v>45753</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="10">
+        <v>45754</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="10">
+        <v>45755</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="10">
+        <v>45756</v>
+      </c>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="10">
+        <v>45757</v>
+      </c>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="10">
+        <v>45758</v>
+      </c>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+    </row>
+    <row r="32" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="22"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+    </row>
+    <row r="40" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+      <c r="D45" s="11"/>
+    </row>
+    <row r="46" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="D46" s="11"/>
+    </row>
+    <row r="47" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" s="22"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A15:D15"/>
@@ -1223,10 +1691,16 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E31:J31"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E17" r:id="rId1"/>
-    <hyperlink ref="E18" r:id="rId2"/>
+    <hyperlink ref="K17" r:id="rId1"/>
+    <hyperlink ref="K18" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1240,7 +1714,7 @@
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1272,7 +1746,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1315,27 +1789,27 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1459,7 +1933,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/timing&planning.xlsx
+++ b/timing&planning.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="142">
   <si>
     <t>1403-12-27</t>
   </si>
@@ -464,6 +464,26 @@
   <si>
     <t>فعالسازی چالش دو مرحله ایی فنفیکس</t>
   </si>
+  <si>
+    <t>اگر خواهان گنجی مرعوب رنج مشو (نیکزاد) وقتی در ضرر میری سیستم دفاعیت فعال میشه (عمیدیان)</t>
+  </si>
+  <si>
+    <t>2025 Lecture Series - NQ NFP Algorithmic Price Delivery \ 04/04/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">success is living well (ict) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">دانش زیاد به درد نمیخوره من هفت سال داشتم دانش کسب میکردم 
+و روشهای مختلف را یاد میگرفتم
+. بعدا فهمیدم که تمام این روشها دنباله ترند هستند 
+(وبینار 1403.11.01 دکتر اناری)
+مهارت و ذهن باید با هم رشد کنن
+وگرنه یک گپ ایجاد میشه
+بین مهارت و تئوری باید هماهنگی وجود داشته باشه
+ممکنه مهارت داشته باشی ولی ذهنت هنوز آمادگی نداشته باشه
+</t>
+  </si>
 </sst>
 </file>
 
@@ -473,7 +493,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,15 +570,8 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,11 +587,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -600,13 +608,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -653,21 +660,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -951,8 +956,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -965,27 +970,27 @@
     <col min="6" max="6" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5703125" style="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="68.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="77.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="67.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1085,20 +1090,20 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
@@ -1205,12 +1210,12 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="12" t="s">
         <v>126</v>
       </c>
@@ -1396,20 +1401,20 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
@@ -1434,7 +1439,7 @@
       <c r="B25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="7" t="s">
         <v>137</v>
       </c>
       <c r="D25" s="11"/>
@@ -1442,6 +1447,18 @@
         <v>45753</v>
       </c>
       <c r="F25" s="10"/>
+      <c r="H25" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
@@ -1509,20 +1526,20 @@
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
     </row>
     <row r="32" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1588,20 +1605,20 @@
       <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22" t="s">
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1667,23 +1684,29 @@
       <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22" t="s">
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="F47" s="22"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E31:J31"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A15:D15"/>
@@ -1691,19 +1714,14 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E31:J31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K17" r:id="rId1"/>
     <hyperlink ref="K18" r:id="rId2"/>
+    <hyperlink ref="K25" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/timing&planning.xlsx
+++ b/timing&planning.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="143">
   <si>
     <t>1403-12-27</t>
   </si>
@@ -482,6 +482,18 @@
 وگرنه یک گپ ایجاد میشه
 بین مهارت و تئوری باید هماهنگی وجود داشته باشه
 ممکنه مهارت داشته باشی ولی ذهنت هنوز آمادگی نداشته باشه
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ساختار مارکت رو باید بشناسی
+ساختار ذهنی خودت رو هم باید بشناسی 
+مشابه پنج مرحله سیستم پرایس اگشن الگو تریدینگ
+مارکت تمام تلاشش رو میکنه تا شما رو گیج کنه
+دیسیپلین ذهنی شما یک ستاپ تکراری به شما میدهد
+دنبال یک راهکار باش که صبر و تحملت بالا بره
+مثل حرکت کردن پشت ماشین سنگین با سرعت کم
+یک راهکار فنی داشتن دیسیپلین اسکور و گزارش کردن آن به یک کوچ می باشد
+وبینار مهندس سلطانپور 1403.10.16
 </t>
   </si>
 </sst>
@@ -660,13 +672,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -977,20 +989,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1090,20 +1102,20 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
@@ -1210,12 +1222,12 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="12" t="s">
         <v>126</v>
       </c>
@@ -1401,20 +1413,20 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
     </row>
     <row r="24" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
@@ -1472,6 +1484,9 @@
         <v>45754</v>
       </c>
       <c r="F26" s="10"/>
+      <c r="H26" s="15" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
@@ -1526,20 +1541,20 @@
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
     </row>
     <row r="32" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1605,20 +1620,20 @@
       <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23" t="s">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
     </row>
     <row r="40" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1684,29 +1699,23 @@
       <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E31:J31"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A15:D15"/>
@@ -1714,6 +1723,12 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E31:J31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K17" r:id="rId1"/>

--- a/timing&planning.xlsx
+++ b/timing&planning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="653"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="653" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="me 1404" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="144">
   <si>
     <t>1403-12-27</t>
   </si>
@@ -495,6 +495,9 @@
 یک راهکار فنی داشتن دیسیپلین اسکور و گزارش کردن آن به یک کوچ می باشد
 وبینار مهندس سلطانپور 1403.10.16
 </t>
+  </si>
+  <si>
+    <t>حواست به فشار فروش باشه. این باعث میشه که pda+ شکست بخورن و لیکویید بشن</t>
   </si>
 </sst>
 </file>
@@ -625,7 +628,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -672,15 +675,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -968,7 +972,7 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -989,20 +993,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1102,20 +1106,20 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
@@ -1222,12 +1226,12 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="12" t="s">
         <v>126</v>
       </c>
@@ -1413,20 +1417,20 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
@@ -1541,20 +1545,20 @@
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
     </row>
     <row r="32" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -1620,20 +1624,20 @@
       <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22" t="s">
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1699,23 +1703,29 @@
       <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22" t="s">
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="F47" s="22"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E31:J31"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A15:D15"/>
@@ -1723,12 +1733,6 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E31:J31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K17" r:id="rId1"/>
@@ -1859,9 +1863,11 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1933,8 +1939,14 @@
         <v>56</v>
       </c>
     </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
